--- a/Experiments/221213_ATP_regen/output.xlsx
+++ b/Experiments/221213_ATP_regen/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221213_ATP_regen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B36C2F6-4432-8547-812E-A3DDB5A6107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C97946-AF5F-1B49-B151-16E5C24E2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16200" xr2:uid="{60F94E49-573A-7547-8C28-72D2BBBEFC8E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>169923.04*</t>
   </si>
@@ -52,15 +52,6 @@
     <t>ppk-minus</t>
   </si>
   <si>
-    <t>Rep1</t>
-  </si>
-  <si>
-    <t>Rep2</t>
-  </si>
-  <si>
-    <t>Rep3</t>
-  </si>
-  <si>
     <t>Temp1</t>
   </si>
   <si>
@@ -68,6 +59,24 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
   </si>
 </sst>
 </file>
@@ -427,35 +436,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9297C0D-B9D5-DA47-BE39-1CD721F8ADC9}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,8 +495,17 @@
       <c r="G2">
         <v>1035708.81</v>
       </c>
+      <c r="H2">
+        <v>12240.85</v>
+      </c>
+      <c r="I2">
+        <v>12877.59</v>
+      </c>
+      <c r="J2">
+        <v>16719.509999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,8 +527,17 @@
       <c r="G3">
         <v>712160.41</v>
       </c>
+      <c r="H3">
+        <v>16769.03</v>
+      </c>
+      <c r="I3">
+        <v>14858.08</v>
+      </c>
+      <c r="J3">
+        <v>26119.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,8 +559,17 @@
       <c r="G4">
         <v>440551.79</v>
       </c>
+      <c r="H4">
+        <v>22664.66</v>
+      </c>
+      <c r="I4">
+        <v>18170.689999999999</v>
+      </c>
+      <c r="J4">
+        <v>32299.040000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,6 +590,15 @@
       </c>
       <c r="G5" t="s">
         <v>0</v>
+      </c>
+      <c r="H5">
+        <v>199514.89</v>
+      </c>
+      <c r="I5">
+        <v>28195.11</v>
+      </c>
+      <c r="J5">
+        <v>297776.25</v>
       </c>
     </row>
   </sheetData>
